--- a/Accounts-Schedules/تدريب سونين 28-7-.xlsx
+++ b/Accounts-Schedules/تدريب سونين 28-7-.xlsx
@@ -7,11 +7,14 @@
     <workbookView windowWidth="19200" windowHeight="7510" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PREP1" sheetId="1" r:id="rId1"/>
+    <sheet name="28-7" sheetId="2" r:id="rId2"/>
+    <sheet name="PREP2" sheetId="3" r:id="rId3"/>
+    <sheet name="4-8" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'28-7'!$B$2:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-8'!$B$2:$I$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="147">
   <si>
     <t>Training at sonnen on Monday, July, 28th, from 10 AM and 7 PM</t>
   </si>
@@ -403,6 +406,75 @@
   </si>
   <si>
     <t>اسلام اشرف</t>
+  </si>
+  <si>
+    <t>Below is the list of trainee scheduled for the Training at sonnen on Monday, August, 4th, from 3PM to 12 AM. Please ensure that if you are unable to reach the candidate listed below, you reply to this thread to avoid any transportation issues.</t>
+  </si>
+  <si>
+    <t>Please note that this will be in New Cairo</t>
+  </si>
+  <si>
+    <t>Rodayna Khourshid</t>
+  </si>
+  <si>
+    <t>مطبعة</t>
+  </si>
+  <si>
+    <t>Mohamed Hesham Ismael</t>
+  </si>
+  <si>
+    <t>Duaa Abdelfattah</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>Samar Almasri</t>
+  </si>
+  <si>
+    <t>ميدان الف مسكن</t>
+  </si>
+  <si>
+    <t>Sara Osman</t>
+  </si>
+  <si>
+    <t>Mohamed Yasser Elnegouli</t>
+  </si>
+  <si>
+    <t>وتر واي</t>
+  </si>
+  <si>
+    <t>Mostafa Ayman</t>
+  </si>
+  <si>
+    <t>Mayar Mohammed</t>
+  </si>
+  <si>
+    <t>Training at sonnen on Monday, August, 4th, from 3PM to 12 AM</t>
+  </si>
+  <si>
+    <t>سمر المصري</t>
+  </si>
+  <si>
+    <t>محمد هشام اسماعيل</t>
+  </si>
+  <si>
+    <t>سارة عثمان</t>
+  </si>
+  <si>
+    <t>ميار محمد</t>
+  </si>
+  <si>
+    <t>دعاء عبد الفتاح</t>
+  </si>
+  <si>
+    <t>ردينا خورشيد</t>
+  </si>
+  <si>
+    <t>محمد ياسر النجولي</t>
+  </si>
+  <si>
+    <t>مصطفى أيمن</t>
   </si>
 </sst>
 </file>
@@ -416,13 +488,53 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -614,7 +726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,7 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -842,16 +960,147 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,6 +1127,21 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
@@ -887,7 +1151,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1018,207 +1282,291 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1776,564 +2124,564 @@
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="39">
         <v>1144282773</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="39">
         <v>1123222315</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="39">
         <v>1022617981</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="39">
         <v>1124630560</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="39">
         <v>1011275160</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="39">
         <v>1101289093</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="39">
         <v>1010333458</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="39">
         <v>1556177813</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="39">
         <v>1152645175</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="39">
         <v>1146898396</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="39">
         <v>1007879704</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="39">
         <v>1275449276</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="39">
         <v>1016740036</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="39">
         <v>1119220381</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="39">
         <v>1142640176</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="39">
         <v>1024995760</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="39">
         <v>1112616693</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="39">
         <v>1021782963</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="39" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="39">
         <v>1090397095</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="39">
         <v>1096113503</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="39" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="39">
         <v>1101043966</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" ht="15.25"/>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="44">
         <v>1092866275</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="46">
         <v>1141036897</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="46">
         <v>1033356787</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="45">
         <v>1001481649</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" ht="23.25" spans="1:5">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="49">
         <v>1142366838</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="51" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2365,835 +2713,835 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="5:5">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="16.25" spans="2:9">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="4">
+    <row r="3" ht="15.25" spans="2:9">
+      <c r="B3" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="33">
         <v>1556177813</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="4">
+    <row r="4" ht="15.25" spans="2:9">
+      <c r="B4" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="33">
         <v>1007879704</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="4">
+    <row r="5" ht="15.25" spans="2:9">
+      <c r="B5" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4">
+    <row r="6" ht="15.25" spans="2:9">
+      <c r="B6" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="33">
         <v>1022617981</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4">
+    <row r="7" ht="15.25" spans="2:9">
+      <c r="B7" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="33">
         <v>1101043966</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4">
+    <row r="8" ht="15.25" spans="2:9">
+      <c r="B8" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="33">
         <v>1152645175</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="4">
+    <row r="9" ht="15.25" spans="2:9">
+      <c r="B9" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="4">
+    <row r="10" ht="15.25" spans="2:9">
+      <c r="B10" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="33">
         <v>1001481649</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="4">
+    <row r="11" ht="15.25" spans="2:9">
+      <c r="B11" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="33">
         <v>1123222315</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4">
+    <row r="12" ht="15.25" spans="2:9">
+      <c r="B12" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="33">
         <v>1024995760</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="4">
+    <row r="13" ht="15.25" spans="2:9">
+      <c r="B13" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="33">
         <v>1142640176</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="4">
+    <row r="14" ht="15.25" spans="2:9">
+      <c r="B14" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="33">
         <v>1144282773</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="4">
+    <row r="15" ht="15.25" spans="2:9">
+      <c r="B15" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="4">
+    <row r="16" ht="15.25" spans="2:9">
+      <c r="B16" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="33">
         <v>1021782963</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="4">
+    <row r="17" ht="15.25" spans="2:9">
+      <c r="B17" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="33">
         <v>1033356787</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="4">
+    <row r="18" ht="15.25" spans="2:9">
+      <c r="B18" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="33">
         <v>1119220381</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="4">
+    <row r="19" ht="15.25" spans="2:9">
+      <c r="B19" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="33">
         <v>1090397095</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="4">
+    <row r="20" ht="15.25" spans="2:9">
+      <c r="B20" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="4">
+    <row r="21" ht="15.25" spans="2:9">
+      <c r="B21" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4">
+    <row r="22" ht="15.25" spans="2:9">
+      <c r="B22" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="33">
         <v>1016740036</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="4">
+    <row r="23" ht="15.25" spans="2:9">
+      <c r="B23" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="33">
         <v>1141036897</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4">
+    <row r="24" ht="15.25" spans="2:9">
+      <c r="B24" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="33">
         <v>1146898396</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="4">
+    <row r="25" ht="15.25" spans="2:9">
+      <c r="B25" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="33">
         <v>1011275160</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="4">
+    <row r="26" ht="15.25" spans="2:9">
+      <c r="B26" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="33">
         <v>1101289093</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="4">
+    <row r="27" ht="15.25" spans="2:9">
+      <c r="B27" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="33">
         <v>1010333458</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="4">
+    <row r="28" ht="15.25" spans="2:9">
+      <c r="B28" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="33">
         <v>1275449276</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="4">
+    <row r="29" ht="15.25" spans="2:9">
+      <c r="B29" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="33">
         <v>1112616693</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="4">
+    <row r="30" ht="15.25" spans="2:9">
+      <c r="B30" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="33">
         <v>1092866275</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="4">
+    <row r="31" ht="15.25" spans="2:9">
+      <c r="B31" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="33">
         <v>1124630560</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="4">
+    <row r="32" ht="15.25" spans="2:9">
+      <c r="B32" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="33">
         <v>1096113503</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="4">
+    <row r="33" ht="15.25" spans="2:9">
+      <c r="B33" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="33">
         <v>1142366838</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3207,4 +3555,462 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="47.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="22.7181818181818" customWidth="1"/>
+    <col min="5" max="5" width="16.1363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25" spans="1:1">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:5">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="18.25" spans="1:5">
+      <c r="A4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1155799964</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" ht="18.25" spans="1:5">
+      <c r="A5" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1012981220</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="18.25" spans="1:5">
+      <c r="A6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1090305240</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" ht="18.25" spans="1:5">
+      <c r="A7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1066926193</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" ht="18.25" spans="1:5">
+      <c r="A8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1125744467</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" ht="18.25" spans="1:5">
+      <c r="A9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1030294228</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" ht="18.25" spans="1:5">
+      <c r="A10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1001596418</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="18.25" spans="1:5">
+      <c r="A11" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1154913448</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="3" width="10.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="12.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="16.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="27.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="17.5909090909091" customWidth="1"/>
+    <col min="8" max="8" width="17.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="27.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.25" spans="6:6">
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1066926193</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1012981220</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1125744467</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1154913448</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1090305240</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1155799964</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1030294228</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" ht="14.75" spans="2:9">
+      <c r="B10" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1001596418</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I10" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B3:I10">
+      <sortCondition ref="G2"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Accounts-Schedules/تدريب سونين 28-7-.xlsx
+++ b/Accounts-Schedules/تدريب سونين 28-7-.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="153">
   <si>
     <t>Training at sonnen on Monday, July, 28th, from 10 AM and 7 PM</t>
   </si>
@@ -448,6 +448,24 @@
   </si>
   <si>
     <t>Mayar Mohammed</t>
+  </si>
+  <si>
+    <t>Wednesday, August 6, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 7, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 8, 2025</t>
+  </si>
+  <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
   </si>
   <si>
     <t>Training at sonnen on Monday, August, 4th, from 3PM to 12 AM</t>
@@ -488,7 +506,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,8 +556,15 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -551,13 +576,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -726,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +780,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE9F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +1000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1165,6 +1215,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1282,133 +1422,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1431,9 +1571,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1443,21 +1580,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1467,18 +1589,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1500,28 +1616,52 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,10 +1673,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,28 +1685,28 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3560,13 +3700,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A15" sqref="A15:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="32.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -3586,159 +3726,475 @@
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="1:5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="19">
         <v>1155799964</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="1:5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="19">
         <v>1012981220</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="19">
         <v>1090305240</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" ht="18.25" spans="1:5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="19">
         <v>1066926193</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" ht="18.25" spans="1:5">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="19">
         <v>1125744467</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="18.25" spans="1:5">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="19">
         <v>1030294228</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" ht="18.25" spans="1:5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="19">
         <v>1001596418</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" ht="18.25" spans="1:5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="19">
         <v>1154913448</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="14" ht="15.25"/>
+    <row r="15" ht="15.25" spans="1:10">
+      <c r="A15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" ht="15.25" spans="1:10">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:10">
+      <c r="A17" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="26">
+        <v>1155799964</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J17" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:10">
+      <c r="A18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1012981220</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I18" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J18" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:10">
+      <c r="A19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="26">
+        <v>1090305240</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J19" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:10">
+      <c r="A20" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1066926193</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J20" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:10">
+      <c r="A21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1125744467</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J21" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:10">
+      <c r="A22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1030294228</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J22" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:10">
+      <c r="A23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1001596418</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H23" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J23" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:10">
+      <c r="A24" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1154913448</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H24" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I24" s="28">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J24" s="28">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3764,9 +4220,9 @@
     <col min="9" max="9" width="27.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.25" spans="6:6">
+    <row r="1" ht="20" customHeight="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="2:9">
@@ -3797,10 +4253,10 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="3">
-        <v>0.625</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D3" s="5">
         <v>1066926193</v>
@@ -3808,204 +4264,204 @@
       <c r="E3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D4" s="8">
         <v>1012981220</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D5" s="8">
         <v>1125744467</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D6" s="8">
         <v>1154913448</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D7" s="8">
         <v>1090305240</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="B8" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D8" s="8">
         <v>1155799964</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D9" s="8">
         <v>1030294228</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" ht="14.75" spans="2:9">
-      <c r="B10" s="15">
-        <v>0.625</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
+    <row r="10" ht="15.25" spans="2:9">
+      <c r="B10" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D10" s="11">
         <v>1001596418</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="14" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I10" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I10">
+    <sortState ref="B2:I10">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب سونين 28-7-.xlsx
+++ b/Accounts-Schedules/تدريب سونين 28-7-.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="154">
   <si>
     <t>Training at sonnen on Monday, July, 28th, from 10 AM and 7 PM</t>
   </si>
@@ -327,18 +327,21 @@
     <t>محمد شتلة</t>
   </si>
   <si>
-    <t>الفردوس</t>
-  </si>
-  <si>
     <t>محمد سيد</t>
   </si>
   <si>
     <t>خالد محمد رفعت</t>
   </si>
   <si>
+    <t>ميدان الحدائق</t>
+  </si>
+  <si>
     <t>أيمن ضاحي</t>
   </si>
   <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
     <t>وليد حلمي</t>
   </si>
   <si>
@@ -363,6 +366,9 @@
     <t>فرح سامح</t>
   </si>
   <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
     <t>علي ابوزيد</t>
   </si>
   <si>
@@ -397,9 +403,6 @@
   </si>
   <si>
     <t>بهاء الدين زهير</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
   </si>
   <si>
     <t>دعاء ابراهيم</t>
@@ -2837,7 +2840,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H32"/>
+      <selection activeCell="H32" sqref="B3:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3082,10 +3085,10 @@
         <v>96</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>76</v>
@@ -3105,7 +3108,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>11</v>
@@ -3117,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="2:9">
+    <row r="12" spans="2:9">
       <c r="B12" s="32">
         <v>0.416666666666667</v>
       </c>
@@ -3131,19 +3134,19 @@
         <v>85</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="2:9">
+    <row r="13" spans="2:9">
       <c r="B13" s="32">
         <v>0.416666666666667</v>
       </c>
@@ -3160,10 +3163,10 @@
         <v>100</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>55</v>
@@ -3183,10 +3186,10 @@
         <v>85</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>9</v>
@@ -3209,10 +3212,10 @@
         <v>85</v>
       </c>
       <c r="F15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>9</v>
@@ -3235,10 +3238,10 @@
         <v>85</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>62</v>
@@ -3261,10 +3264,10 @@
         <v>85</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>72</v>
@@ -3287,7 +3290,7 @@
         <v>85</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>53</v>
@@ -3313,7 +3316,7 @@
         <v>85</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>53</v>
@@ -3325,7 +3328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" ht="15.25" spans="2:9">
+    <row r="20" spans="2:9">
       <c r="B20" s="32">
         <v>0.416666666666667</v>
       </c>
@@ -3339,13 +3342,13 @@
         <v>85</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>53</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>73</v>
@@ -3365,7 +3368,7 @@
         <v>85</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>37</v>
@@ -3391,7 +3394,7 @@
         <v>85</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>37</v>
@@ -3417,7 +3420,7 @@
         <v>85</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>37</v>
@@ -3443,7 +3446,7 @@
         <v>85</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>45</v>
@@ -3469,7 +3472,7 @@
         <v>85</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>27</v>
@@ -3495,7 +3498,7 @@
         <v>85</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>27</v>
@@ -3521,7 +3524,7 @@
         <v>85</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>27</v>
@@ -3547,7 +3550,7 @@
         <v>85</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>27</v>
@@ -3573,7 +3576,7 @@
         <v>85</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>27</v>
@@ -3599,10 +3602,10 @@
         <v>85</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>69</v>
@@ -3625,10 +3628,10 @@
         <v>85</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>25</v>
@@ -3651,10 +3654,10 @@
         <v>85</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H32" s="33" t="s">
         <v>65</v>
@@ -3677,7 +3680,7 @@
         <v>85</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -3717,12 +3720,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:5">
@@ -3744,7 +3747,7 @@
     </row>
     <row r="4" ht="18.25" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" s="19">
         <v>1155799964</v>
@@ -3756,12 +3759,12 @@
         <v>37</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="19">
         <v>1012981220</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="6" ht="18.25" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" s="19">
         <v>1090305240</v>
@@ -3790,12 +3793,12 @@
         <v>56</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="18.25" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" s="19">
         <v>1066926193</v>
@@ -3807,12 +3810,12 @@
         <v>15</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="18.25" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="19">
         <v>1125744467</v>
@@ -3829,7 +3832,7 @@
     </row>
     <row r="9" ht="18.25" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="19">
         <v>1030294228</v>
@@ -3841,12 +3844,12 @@
         <v>45</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="18.25" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="19">
         <v>1001596418</v>
@@ -3863,7 +3866,7 @@
     </row>
     <row r="11" ht="18.25" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="19">
         <v>1154913448</v>
@@ -3893,15 +3896,15 @@
         <v>5</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J15" s="23"/>
     </row>
@@ -3911,27 +3914,27 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>141</v>
-      </c>
       <c r="H16" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>141</v>
-      </c>
       <c r="J16" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:10">
       <c r="A17" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" s="26">
         <v>1155799964</v>
@@ -3940,7 +3943,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E17" s="28">
         <v>0.708333333333333</v>
@@ -3963,7 +3966,7 @@
     </row>
     <row r="18" ht="15.25" spans="1:10">
       <c r="A18" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" s="26">
         <v>1012981220</v>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="19" ht="15.25" spans="1:10">
       <c r="A19" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" s="26">
         <v>1090305240</v>
@@ -4004,7 +4007,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19" s="28">
         <v>0.708333333333333</v>
@@ -4027,7 +4030,7 @@
     </row>
     <row r="20" ht="15.25" spans="1:10">
       <c r="A20" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" s="26">
         <v>1066926193</v>
@@ -4036,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="28">
         <v>0.708333333333333</v>
@@ -4059,7 +4062,7 @@
     </row>
     <row r="21" ht="15.25" spans="1:10">
       <c r="A21" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" s="26">
         <v>1125744467</v>
@@ -4091,7 +4094,7 @@
     </row>
     <row r="22" ht="15.25" spans="1:10">
       <c r="A22" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="26">
         <v>1030294228</v>
@@ -4100,7 +4103,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="28">
         <v>0.708333333333333</v>
@@ -4123,7 +4126,7 @@
     </row>
     <row r="23" ht="15.25" spans="1:10">
       <c r="A23" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" s="26">
         <v>1001596418</v>
@@ -4155,7 +4158,7 @@
     </row>
     <row r="24" ht="15.25" spans="1:10">
       <c r="A24" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="26">
         <v>1154913448</v>
@@ -4222,7 +4225,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="2:9">
@@ -4265,16 +4268,16 @@
         <v>85</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -4291,7 +4294,7 @@
         <v>85</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>93</v>
@@ -4300,7 +4303,7 @@
         <v>43</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -4317,7 +4320,7 @@
         <v>85</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>93</v>
@@ -4326,7 +4329,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -4343,7 +4346,7 @@
         <v>85</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>93</v>
@@ -4352,7 +4355,7 @@
         <v>43</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -4369,16 +4372,16 @@
         <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -4395,16 +4398,16 @@
         <v>85</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -4421,16 +4424,16 @@
         <v>85</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:9">
@@ -4447,7 +4450,7 @@
         <v>85</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>45</v>
@@ -4456,7 +4459,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
